--- a/aggregates/AMD.xlsx
+++ b/aggregates/AMD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\STONKS\downloads\AMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C42F497-2B5F-4C17-A065-6294AEA4FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C314C46E-BBD1-4067-BB87-9FF9CECC7BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1085,7 @@
         <v>1793</v>
       </c>
       <c r="E17" s="2">
-        <v>571</v>
+        <v>1781</v>
       </c>
       <c r="F17">
         <v>1207</v>
